--- a/piglets_tests/overview.xlsx
+++ b/piglets_tests/overview.xlsx
@@ -1,35 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/57f4e62835fc64de/Dokumente/Uni/Master/Masterarbeit/code/piglets_tests/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="11_CD039FDBC9D71157565D981978C1584ABCD77BCF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D208077-76B0-4062-9E1D-57BCF6C89E1E}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet r:id="rId2" sheetId="2" name="Sheet2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -249,9 +230,6 @@
     <t>LWP511_Ws_25Jul_2017_16   2.mat</t>
   </si>
   <si>
-    <t>LWP511_DarkCount_25Jul2017.mat</t>
-  </si>
-  <si>
     <t>LWP512</t>
   </si>
   <si>
@@ -485,6 +463,9 @@
   </si>
   <si>
     <t>1 darkcount for two spectrs</t>
+  </si>
+  <si>
+    <t>LWP511_DarkCount_25Jul2017.mat</t>
   </si>
   <si>
     <t>Faulty, extremely noisy</t>
@@ -508,8 +489,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="h:mm:ss Am/Pm"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,14 +507,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -539,28 +517,22 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE699"/>
+        <fgColor rgb="FFffe699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC5E0B4"/>
+        <fgColor rgb="FFc5e0b4"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFE7E6E6"/>
+        <fgColor rgb="FFe7e6e6"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFffffff"/>
       </patternFill>
     </fill>
   </fills>
@@ -599,79 +571,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="21" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="164" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="19" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="19" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="21" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="21" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -682,10 +657,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -723,71 +698,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -815,7 +790,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -838,11 +813,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -851,13 +826,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -867,7 +842,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -876,7 +851,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -885,7 +860,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -893,10 +868,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -961,34 +936,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H49" activeCellId="14" sqref="H2:I4 H7:I7 H10:I10 H12:I12 H14:I17 H21:I21 H23:I23 H27:I27 H29:I29 H33:I33 H35:I35 H37:I39 H42:I44 H46:I46 H49:I49"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.1796875" style="19" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.81640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="69.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="32.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="12.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="65.14785714285713" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="21" width="15.719285714285713" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="21" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="21" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="22" width="13.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="22" width="11.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="8" width="14.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="8" width="59.005" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="69.57642857142856" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="31.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -996,19 +969,19 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="10" t="s">
         <v>77</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>3</v>
@@ -1017,75 +990,73 @@
         <v>4</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="14">
+        <v>3.5971527777777776</v>
+      </c>
+      <c r="F2" s="14">
+        <v>3.6057175925925926</v>
+      </c>
+      <c r="G2" s="14">
+        <v>3.6228819444444444</v>
+      </c>
+      <c r="H2" s="15">
+        <f>ROUND((F2-E2)*86400/10.1,0)</f>
+      </c>
+      <c r="I2" s="15">
+        <f>ROUND((G2-E2)*86400/10.1,0)</f>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="11">
-        <v>2.5971527777777776</v>
-      </c>
-      <c r="F2" s="11">
-        <v>2.6057175925925926</v>
-      </c>
-      <c r="G2" s="11">
-        <v>2.6228819444444444</v>
-      </c>
-      <c r="H2" s="12">
-        <f>ROUND((F2-E2)*86400/10.1,0)</f>
-        <v>73</v>
-      </c>
-      <c r="I2" s="12">
-        <f>ROUND((G2-E2)*86400/10.1,0)</f>
-        <v>220</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="9"/>
-    </row>
-    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
+      <c r="M2" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7">
-        <v>2.6297569444444444</v>
-      </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="E3" s="10">
+        <v>3.6297569444444444</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="3">
         <v>200</v>
       </c>
@@ -1093,479 +1064,465 @@
         <v>360</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+      <c r="A4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="17">
+        <v>3.5865625</v>
+      </c>
+      <c r="F4" s="17">
+        <v>3.604201388888889</v>
+      </c>
+      <c r="G4" s="17">
+        <v>3.6215625</v>
+      </c>
+      <c r="H4" s="15">
+        <f>ROUND((F4-E4)*86400/10.1,0)</f>
+      </c>
+      <c r="I4" s="15">
+        <f>ROUND((G4-E4)*86400/10.1,0)</f>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+      <c r="M4" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="14">
-        <v>2.5865625000000003</v>
-      </c>
-      <c r="F4" s="14">
-        <v>2.6042013888888889</v>
-      </c>
-      <c r="G4" s="14">
-        <v>2.6215625</v>
-      </c>
-      <c r="H4" s="12">
-        <f>ROUND((F4-E4)*86400/10.1,0)</f>
-        <v>151</v>
-      </c>
-      <c r="I4" s="12">
-        <f>ROUND((G4-E4)*86400/10.1,0)</f>
-        <v>299</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="M4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="C5" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+      <c r="A6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="L5" s="9" t="s">
+      <c r="B6" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="9"/>
-    </row>
-    <row r="6" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D6" s="9" t="s">
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="L6" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="M6" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+      <c r="A7" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="7">
-        <v>2.5260995370370369</v>
-      </c>
-      <c r="F7" s="7">
-        <v>2.5674305555555557</v>
-      </c>
-      <c r="G7" s="7">
-        <v>2.5820254629629629</v>
-      </c>
-      <c r="H7" s="20">
+      <c r="E7" s="10">
+        <v>3.526099537037037</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3.5674305555555557</v>
+      </c>
+      <c r="G7" s="10">
+        <v>3.582025462962963</v>
+      </c>
+      <c r="H7" s="3">
         <f>ROUND((F7-E7)*86400/10.1,0)</f>
-        <v>354</v>
-      </c>
-      <c r="I7" s="20">
+      </c>
+      <c r="I7" s="3">
         <f>ROUND((G7-E7)*86400/10.1,0)</f>
-        <v>478</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K7" s="1"/>
-      <c r="L7" s="15" t="s">
-        <v>98</v>
+      <c r="L7" s="18" t="s">
+        <v>97</v>
       </c>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="L8" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="M8" s="15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M8" s="18" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
+      <c r="A10" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="17">
+        <v>3.6083796296296295</v>
+      </c>
+      <c r="F10" s="17">
+        <v>3.651365740740741</v>
+      </c>
+      <c r="G10" s="17">
+        <v>3.6654976851851853</v>
+      </c>
+      <c r="H10" s="15">
+        <f>ROUND((F10-E10)*86400/10.1,0)</f>
+      </c>
+      <c r="I10" s="15">
+        <f>ROUND((G10-E10)*86400/10.1,0)</f>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
+      <c r="M10" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
+      <c r="A11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="14">
-        <v>2.6083796296296295</v>
-      </c>
-      <c r="F10" s="14">
-        <v>2.6513657407407409</v>
-      </c>
-      <c r="G10" s="14">
-        <v>2.6654976851851853</v>
-      </c>
-      <c r="H10" s="12">
-        <f>ROUND((F10-E10)*86400/10.1,0)</f>
-        <v>368</v>
-      </c>
-      <c r="I10" s="12">
-        <f>ROUND((G10-E10)*86400/10.1,0)</f>
-        <v>489</v>
-      </c>
-      <c r="J10" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9" t="s">
+      <c r="B11" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="M10" s="9"/>
-    </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="9" t="s">
+      <c r="C11" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" s="9" t="s">
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" s="9"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="M11" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
+      <c r="A12" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="7">
-        <v>2.5584606481481482</v>
-      </c>
-      <c r="F12" s="7">
-        <v>2.5833680555555558</v>
-      </c>
-      <c r="G12" s="7">
-        <v>2.6014351851851849</v>
-      </c>
-      <c r="H12" s="20">
+      <c r="E12" s="10">
+        <v>3.558460648148148</v>
+      </c>
+      <c r="F12" s="10">
+        <v>3.5833680555555554</v>
+      </c>
+      <c r="G12" s="10">
+        <v>3.6014351851851854</v>
+      </c>
+      <c r="H12" s="3">
         <f>ROUND((F12-E12)*86400/10.1,0)</f>
-        <v>213</v>
-      </c>
-      <c r="I12" s="20">
+      </c>
+      <c r="I12" s="3">
         <f>ROUND((G12-E12)*86400/10.1,0)</f>
-        <v>368</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
       <c r="J13" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
+      <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="14">
-        <v>2.5656481481481483</v>
-      </c>
-      <c r="F14" s="14">
-        <v>2.5798958333333335</v>
-      </c>
-      <c r="G14" s="14">
-        <v>2.5938425925925923</v>
-      </c>
-      <c r="H14" s="12">
+      <c r="E14" s="17">
+        <v>3.5656481481481483</v>
+      </c>
+      <c r="F14" s="17">
+        <v>3.5798958333333335</v>
+      </c>
+      <c r="G14" s="17">
+        <v>3.5938425925925928</v>
+      </c>
+      <c r="H14" s="15">
         <f>ROUND((F14-E14)*86400/10.1,0)</f>
-        <v>122</v>
-      </c>
-      <c r="I14" s="12">
+      </c>
+      <c r="I14" s="15">
         <f>ROUND((G14-E14)*86400/10.1,0)</f>
-        <v>241</v>
-      </c>
-      <c r="J14" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M14" s="9"/>
-    </row>
-    <row r="15" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="8" t="s">
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M14" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
+      <c r="A15" s="11" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="7">
-        <v>2.6327662037037038</v>
-      </c>
-      <c r="F15" s="7">
-        <v>2.6492361111111111</v>
-      </c>
-      <c r="G15" s="7">
-        <v>2.6659953703703705</v>
-      </c>
-      <c r="H15" s="20">
+      <c r="E15" s="10">
+        <v>3.632766203703704</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3.649236111111111</v>
+      </c>
+      <c r="G15" s="10">
+        <v>3.6659953703703705</v>
+      </c>
+      <c r="H15" s="3">
         <f>ROUND((F15-E15)*86400/10.1,0)</f>
-        <v>141</v>
-      </c>
-      <c r="I15" s="20">
+      </c>
+      <c r="I15" s="3">
         <f>ROUND((G15-E15)*86400/10.1,0)</f>
-        <v>284</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="C16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="14">
-        <v>2.5076851851851849</v>
-      </c>
-      <c r="F16" s="14">
-        <v>2.5424537037037034</v>
-      </c>
-      <c r="G16" s="14">
-        <v>2.5563194444444441</v>
-      </c>
-      <c r="H16" s="12">
+      <c r="E16" s="17">
+        <v>3.5076851851851854</v>
+      </c>
+      <c r="F16" s="17">
+        <v>3.542453703703704</v>
+      </c>
+      <c r="G16" s="17">
+        <v>3.5563194444444446</v>
+      </c>
+      <c r="H16" s="15">
         <f>ROUND((F16-E16)*86400/10.1,0)</f>
-        <v>297</v>
-      </c>
-      <c r="I16" s="12">
+      </c>
+      <c r="I16" s="15">
         <f>ROUND((G16-E16)*86400/10.1,0)</f>
-        <v>416</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="M16" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
+      <c r="A17" s="5" t="s">
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E17" s="7">
-        <v>2.5313310185185185</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="E17" s="10">
+        <v>3.5313310185185185</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="3">
         <v>80</v>
       </c>
@@ -1573,117 +1530,117 @@
         <v>280</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
+      <c r="A19" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="C19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="9" t="s">
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
+      <c r="A20" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="C20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
+      <c r="A21" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="7">
-        <v>2.5523379629629632</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="E21" s="10">
+        <v>3.552337962962963</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="3">
         <v>180</v>
       </c>
@@ -1691,59 +1648,59 @@
         <v>340</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
+      <c r="A22" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="C22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K22" s="12"/>
+      <c r="L22" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="M22" s="9"/>
-    </row>
-    <row r="23" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="M22" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
+      <c r="A23" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="7">
-        <v>2.5218171296296297</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="E23" s="10">
+        <v>3.5218171296296297</v>
+      </c>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
       <c r="H23" s="3">
         <v>60</v>
       </c>
@@ -1751,355 +1708,353 @@
         <v>240</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M23" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
+      <c r="A24" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="L23" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="9" t="s">
+      <c r="C24" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="12"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="12"/>
+      <c r="L24" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M24" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9" t="s">
+      <c r="B25" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="9"/>
-    </row>
-    <row r="25" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="9" t="s">
+      <c r="C25" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="12"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="12"/>
+      <c r="L25" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M25" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
+      <c r="A26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B26" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="12"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K26" s="12"/>
+      <c r="L26" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D25" s="9"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="M25" s="9"/>
-    </row>
-    <row r="26" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="9" t="s">
+      <c r="M26" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="19.5">
+      <c r="A27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="17">
+        <v>3.5368055555555555</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="15">
+        <v>120</v>
+      </c>
+      <c r="I27" s="15">
+        <v>280</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C26" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="9"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="M26" s="9"/>
-    </row>
-    <row r="27" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="14">
-        <v>2.5368055555555555</v>
-      </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="12">
-        <v>120</v>
-      </c>
-      <c r="I27" s="12">
-        <v>280</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K27" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="L27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="M27" s="9"/>
-    </row>
-    <row r="28" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="L27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="M27" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="19.5">
       <c r="A28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="19.5">
+      <c r="A29" s="11" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="7">
-        <v>2.5227314814814816</v>
-      </c>
-      <c r="F29" s="7">
-        <v>2.5487152777777777</v>
-      </c>
-      <c r="G29" s="7">
-        <v>2.564085648148148</v>
-      </c>
-      <c r="H29" s="20">
+      <c r="E29" s="10">
+        <v>3.5227314814814816</v>
+      </c>
+      <c r="F29" s="10">
+        <v>3.5487152777777777</v>
+      </c>
+      <c r="G29" s="10">
+        <v>3.564085648148148</v>
+      </c>
+      <c r="H29" s="3">
         <f>ROUND((F29-E29)*86400/10.1,0)</f>
-        <v>222</v>
-      </c>
-      <c r="I29" s="20">
+      </c>
+      <c r="I29" s="3">
         <f>ROUND((G29-E29)*86400/10.1,0)</f>
-        <v>354</v>
       </c>
       <c r="J29" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L29" s="1" t="s">
-        <v>84</v>
-      </c>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="19.5">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="19.5">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="L31" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="L31" s="1" t="s">
-        <v>135</v>
-      </c>
       <c r="M31" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="19.5">
       <c r="A32" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="19.5">
+      <c r="A33" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E33" s="17">
+        <v>3.503275462962963</v>
+      </c>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="15">
+        <v>200</v>
+      </c>
+      <c r="I33" s="15">
+        <v>340</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K33" s="12"/>
+      <c r="L33" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D33" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E33" s="14">
-        <v>2.503275462962963</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="12">
-        <v>200</v>
-      </c>
-      <c r="I33" s="12">
-        <v>340</v>
-      </c>
-      <c r="J33" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M33" s="9"/>
-    </row>
-    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="M33" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="5" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E35" s="7">
-        <v>2.5722685185185186</v>
-      </c>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="E35" s="10">
+        <v>3.5722685185185186</v>
+      </c>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
       <c r="H35" s="3">
         <v>760</v>
       </c>
@@ -2107,226 +2062,224 @@
         <v>900</v>
       </c>
       <c r="J35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L35" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="M35" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="L35" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="9" t="s">
+      <c r="C36" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M36" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" s="9" t="s">
+      <c r="B37" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="M36" s="9"/>
-    </row>
-    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37" s="10" t="s">
+      <c r="E37" s="17">
+        <v>3.491157407407407</v>
+      </c>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="15">
+        <v>540</v>
+      </c>
+      <c r="I37" s="15">
+        <v>680</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="L37" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D37" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E37" s="14">
-        <v>2.4911574074074077</v>
-      </c>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="12">
-        <v>540</v>
-      </c>
-      <c r="I37" s="12">
-        <v>680</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M37" s="9"/>
-    </row>
-    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="M37" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="5" t="s">
         <v>55</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="7">
-        <v>2.4957986111111108</v>
-      </c>
-      <c r="F38" s="7">
-        <v>2.535520833333333</v>
-      </c>
-      <c r="G38" s="7">
-        <v>2.5541203703703701</v>
-      </c>
-      <c r="H38" s="20">
+      <c r="E38" s="10">
+        <v>3.4957986111111112</v>
+      </c>
+      <c r="F38" s="10">
+        <v>3.5355208333333334</v>
+      </c>
+      <c r="G38" s="10">
+        <v>3.5541203703703705</v>
+      </c>
+      <c r="H38" s="3">
         <f>ROUND((F38-E38)*86400/10.1,0)</f>
-        <v>340</v>
-      </c>
-      <c r="I38" s="20">
+      </c>
+      <c r="I38" s="3">
         <f>ROUND((G38-E38)*86400/10.1,0)</f>
-        <v>499</v>
       </c>
       <c r="J38" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E39" s="17">
+        <v>3.5949768518518517</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="15">
+        <v>120</v>
+      </c>
+      <c r="I39" s="15">
+        <v>260</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39" s="12"/>
+      <c r="L39" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L38" s="2" t="s">
+      <c r="M39" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+      <c r="A40" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="C40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K40" s="12"/>
+      <c r="L40" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+      <c r="A41" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="B39" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="E39" s="14">
-        <v>2.5949768518518521</v>
-      </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="12">
-        <v>120</v>
-      </c>
-      <c r="I39" s="12">
-        <v>260</v>
-      </c>
-      <c r="J39" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M39" s="9"/>
-    </row>
-    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="K40" s="9"/>
-      <c r="L40" s="9" t="s">
+      <c r="B41" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="9" t="s">
+      <c r="C41" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D41" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="C41" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D41" s="9" t="s">
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K41" s="12"/>
+      <c r="L41" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="M41" s="9"/>
-    </row>
-    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4" t="s">
+      <c r="M41" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+      <c r="A42" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E42" s="7">
-        <v>2.5767476851851852</v>
-      </c>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="E42" s="10">
+        <v>3.576747685185185</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
       <c r="H42" s="3">
         <v>320</v>
       </c>
@@ -2334,72 +2287,72 @@
         <v>440</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+      <c r="A43" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C43" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="17">
+        <v>3.7509722222222224</v>
+      </c>
+      <c r="F43" s="17">
+        <v>3.724375</v>
+      </c>
+      <c r="G43" s="17">
+        <v>3.7383449074074075</v>
+      </c>
+      <c r="H43" s="15">
+        <v>120</v>
+      </c>
+      <c r="I43" s="15">
+        <v>240</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K43" s="12"/>
+      <c r="L43" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="14">
-        <v>2.7509722222222219</v>
-      </c>
-      <c r="F43" s="14">
-        <v>2.7243750000000002</v>
-      </c>
-      <c r="G43" s="14">
-        <v>2.7383449074074075</v>
-      </c>
-      <c r="H43" s="12">
-        <v>120</v>
-      </c>
-      <c r="I43" s="12">
-        <v>240</v>
-      </c>
-      <c r="J43" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M43" s="9"/>
-    </row>
-    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+      <c r="M43" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+      <c r="A44" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E44" s="7">
-        <v>2.7640277777777778</v>
-      </c>
-      <c r="F44" s="7">
-        <v>2.7582870370370367</v>
-      </c>
-      <c r="G44" s="7">
-        <v>2.7715740740740742</v>
+      <c r="E44" s="10">
+        <v>3.7640277777777778</v>
+      </c>
+      <c r="F44" s="10">
+        <v>3.758287037037037</v>
+      </c>
+      <c r="G44" s="10">
+        <v>3.771574074074074</v>
       </c>
       <c r="H44" s="3">
         <v>300</v>
@@ -2408,125 +2361,125 @@
         <v>420</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K45" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="M45" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+      <c r="A46" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="L45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="4" t="s">
+      <c r="E46" s="17">
+        <v>3.6124305555555556</v>
+      </c>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="15">
+        <v>220</v>
+      </c>
+      <c r="I46" s="15">
+        <v>360</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K46" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="L46" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="M46" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+      <c r="A47" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C46" s="10" t="s">
+      <c r="B47" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="L47" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="M47" s="12"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+      <c r="A48" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="E46" s="14">
-        <v>2.6124305555555556</v>
-      </c>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="12">
-        <v>220</v>
-      </c>
-      <c r="I46" s="12">
-        <v>360</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K46" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="M46" s="9"/>
-    </row>
-    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B47" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="K47" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M47" s="9"/>
-    </row>
-    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
-      <c r="G48" s="7"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
@@ -2534,24 +2487,24 @@
       </c>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="4" t="s">
+    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+      <c r="A49" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="C49" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="7">
-        <v>2.5859375</v>
-      </c>
-      <c r="F49" s="7"/>
-      <c r="G49" s="7"/>
+      <c r="E49" s="10">
+        <v>3.5859375</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
       <c r="H49" s="3">
         <v>80</v>
       </c>
@@ -2559,29 +2512,45 @@
         <v>220</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E50" s="16"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-    </row>
-    <row r="51" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E51" s="16"/>
-      <c r="F51" s="16" t="s">
+    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4"/>
+      <c r="M50" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="19"/>
+      <c r="F51" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
+      <c r="G51" s="19"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2589,25 +2558,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="34.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.81640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="8" width="50.29071428571429" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="8" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="34.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="9" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="9" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2623,8 +2592,9 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2634,32 +2604,33 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="3">
         <v>73</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="3">
         <v>220</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="6">
         <v>200</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E3" s="6">
         <v>360</v>
       </c>
-      <c r="F3" s="22"/>
-    </row>
-    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -2669,15 +2640,15 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="3">
         <v>151</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="3">
         <v>299</v>
       </c>
-      <c r="F4" s="22"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2687,15 +2658,15 @@
       <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="3">
         <v>354</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="3">
         <v>478</v>
       </c>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -2705,15 +2676,15 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="3">
         <v>368</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="3">
         <v>489</v>
       </c>
-      <c r="F6" s="22"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -2723,15 +2694,15 @@
       <c r="C7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="3">
         <v>213</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="3">
         <v>368</v>
       </c>
-      <c r="F7" s="22"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -2741,15 +2712,15 @@
       <c r="C8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="20">
+      <c r="D8" s="3">
         <v>122</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="3">
         <v>241</v>
       </c>
-      <c r="F8" s="22"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="1" t="s">
         <v>26</v>
       </c>
@@ -2759,15 +2730,15 @@
       <c r="C9" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="3">
         <v>141</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="3">
         <v>284</v>
       </c>
-      <c r="F9" s="22"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>29</v>
       </c>
@@ -2777,15 +2748,15 @@
       <c r="C10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="3">
         <v>297</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="3">
         <v>416</v>
       </c>
-      <c r="F10" s="22"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -2795,15 +2766,15 @@
       <c r="C11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="21">
+      <c r="D11" s="6">
         <v>80</v>
       </c>
-      <c r="E11" s="21">
+      <c r="E11" s="6">
         <v>280</v>
       </c>
-      <c r="F11" s="22"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
@@ -2813,51 +2784,51 @@
       <c r="C12" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D12" s="6">
         <v>180</v>
       </c>
-      <c r="E12" s="21">
+      <c r="E12" s="6">
         <v>340</v>
       </c>
-      <c r="F12" s="22"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="F12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
+      <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="21">
+      <c r="D13" s="6">
         <v>60</v>
       </c>
-      <c r="E13" s="21">
+      <c r="E13" s="6">
         <v>240</v>
       </c>
-      <c r="F13" s="22"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="21">
+      <c r="D14" s="6">
         <v>120</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="6">
         <v>280</v>
       </c>
-      <c r="F14" s="22"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="1" t="s">
         <v>43</v>
       </c>
@@ -2867,16 +2838,16 @@
       <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="3">
         <v>222</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="3">
         <v>354</v>
       </c>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="F15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
+      <c r="A16" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -2885,15 +2856,15 @@
       <c r="C16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D16" s="6">
         <v>200</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="6">
         <v>340</v>
       </c>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="1" t="s">
         <v>49</v>
       </c>
@@ -2903,15 +2874,15 @@
       <c r="C17" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D17" s="6">
         <v>760</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="6">
         <v>900</v>
       </c>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F17" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="1" t="s">
         <v>52</v>
       </c>
@@ -2921,33 +2892,33 @@
       <c r="C18" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="21">
+      <c r="D18" s="6">
         <v>540</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="6">
         <v>680</v>
       </c>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="3">
         <v>340</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="3">
         <v>499</v>
       </c>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -2957,15 +2928,15 @@
       <c r="C20" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="6">
         <v>120</v>
       </c>
-      <c r="E20" s="21">
+      <c r="E20" s="6">
         <v>260</v>
       </c>
-      <c r="F20" s="22"/>
-    </row>
-    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -2975,15 +2946,15 @@
       <c r="C21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="6">
         <v>320</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="6">
         <v>440</v>
       </c>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -2993,15 +2964,15 @@
       <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="6">
         <v>120</v>
       </c>
-      <c r="E22" s="21">
+      <c r="E22" s="6">
         <v>240</v>
       </c>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -3011,15 +2982,15 @@
       <c r="C23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="6">
         <v>300</v>
       </c>
-      <c r="E23" s="21">
+      <c r="E23" s="6">
         <v>420</v>
       </c>
-      <c r="F23" s="22"/>
-    </row>
-    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F23" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -3027,39 +2998,49 @@
         <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="6">
+        <v>220</v>
+      </c>
+      <c r="E24" s="6">
+        <v>360</v>
+      </c>
+      <c r="F24" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="A25" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D24" s="21">
+      <c r="B25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="6">
+        <v>80</v>
+      </c>
+      <c r="E25" s="6">
         <v>220</v>
       </c>
-      <c r="E24" s="21">
-        <v>360</v>
-      </c>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" s="21">
-        <v>80</v>
-      </c>
-      <c r="E25" s="21">
-        <v>220</v>
-      </c>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="F27" s="22"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
